--- a/V9_Laptop - Multi-Output.xlsx
+++ b/V9_Laptop - Multi-Output.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/aaron_woods_thermofisher_com/Documents/Documents/GitHub/Image-Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_4FAB098E01E24A3161AD1D5099264884CC87550B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81498129-7021-4BA1-9682-242A82069394}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_4FAB098E01E24A3161AD1D5099264884CC87550B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{503F5706-63AD-4937-A8BD-099EDE8E2821}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="multi_output_mobilenetv2" sheetId="2" r:id="rId1"/>
-    <sheet name="multi_output_inceptionv3" sheetId="3" r:id="rId2"/>
-    <sheet name="multi_output_resnet50" sheetId="4" r:id="rId3"/>
-    <sheet name="multi_output_small_xception" sheetId="5" r:id="rId4"/>
-    <sheet name="multi_output_basic_cnn" sheetId="6" r:id="rId5"/>
+    <sheet name="mobilenetv2" sheetId="2" r:id="rId1"/>
+    <sheet name="inceptionv3" sheetId="3" r:id="rId2"/>
+    <sheet name="resnet50" sheetId="4" r:id="rId3"/>
+    <sheet name="small_xception" sheetId="5" r:id="rId4"/>
+    <sheet name="basic_cnn" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -125,7 +125,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J22"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2270,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J30"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,7 +3244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J14"/>
     </sheetView>
   </sheetViews>
